--- a/artifacts/sprint-3-logs.xlsx
+++ b/artifacts/sprint-3-logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbens\dev\sosgame\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbens\dev\sosgame\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33094FC-2648-4262-A254-7BBAFA0D86E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B8397-B7C9-4DAC-99C2-F3CA46883C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="1995" windowWidth="16410" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16290" yWindow="-10785" windowWidth="16410" windowHeight="11295" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Summary of Source Code" sheetId="4" r:id="rId3"/>
     <sheet name="Production Code" sheetId="5" r:id="rId4"/>
     <sheet name="Automated Test Code" sheetId="6" r:id="rId5"/>
-    <sheet name="Manual Test Code" sheetId="10" r:id="rId6"/>
+    <sheet name="Manual Tests" sheetId="10" r:id="rId6"/>
     <sheet name="Additional Automated Tests" sheetId="11" r:id="rId7"/>
     <sheet name="Accessibility Table" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="384">
   <si>
     <t>ID</t>
   </si>
@@ -1209,6 +1209,72 @@
   </si>
   <si>
     <t>A message box will show telling the user that the blue player won because they completed the most SOS lines</t>
+  </si>
+  <si>
+    <t>Start a new general game and complete an SOS with the blue player.</t>
+  </si>
+  <si>
+    <t>After completing the SOS, the blue player should get another turn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start a new general game and make a move with the blue player, but do not complete an SOS. </t>
+  </si>
+  <si>
+    <t>After making a move without completing an SOS, it should be the red player's turn.</t>
+  </si>
+  <si>
+    <t>Start a new general game and make moves until the board is completely filled up, but make sure the number of SOSs completed by the blue and red players are the same.</t>
+  </si>
+  <si>
+    <t>A message box will show telling the user that the general game ended in a draw because the blue and red players completed the same number of SOS lines.</t>
+  </si>
+  <si>
+    <t>SimpleGame.NewTurn</t>
+  </si>
+  <si>
+    <t>SimpleGameTest.TestNewTurn</t>
+  </si>
+  <si>
+    <t>GeneralGame.NewTurn</t>
+  </si>
+  <si>
+    <t>GeneralGameTest.TestNewTurn</t>
+  </si>
+  <si>
+    <t>It is now the red player's turn</t>
+  </si>
+  <si>
+    <t>It is still the blue player's turn</t>
+  </si>
+  <si>
+    <t>SimpleGame.NewTurn is called during a game when it is the blue player's turn</t>
+  </si>
+  <si>
+    <t>It should now be the red player's turn</t>
+  </si>
+  <si>
+    <t>SimpleGame.NewTurn is called during a game when it is the red player's turn</t>
+  </si>
+  <si>
+    <t>It should now be the blue player's turn</t>
+  </si>
+  <si>
+    <t>GeneralGame.NewTurn is called when it is the blue player's turn and they did not complete an SOS on their last move</t>
+  </si>
+  <si>
+    <t>GeneralGame.NewTurn is called when it is the blue player's turn and they completed an SOS on their last move</t>
+  </si>
+  <si>
+    <t>GeneralGame.NewTurn is called when it is red player's turn and they did not complete an SOS on their last move</t>
+  </si>
+  <si>
+    <t>GeneralGame.NewTurn is called when it is the red player's turn and they completed an SOS on their last move</t>
+  </si>
+  <si>
+    <t>It is now the blue player's turn</t>
+  </si>
+  <si>
+    <t>It is still the red player's turn</t>
   </si>
 </sst>
 </file>
@@ -1302,12 +1368,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1321,31 +1381,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1459,6 +1510,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1587,77 +1653,77 @@
     <tableColumn id="1" xr3:uid="{FA37DF55-838D-4C91-A069-B4ADFBB114FF}" name="Story ID" dataDxfId="45"/>
     <tableColumn id="7" xr3:uid="{B29593B2-9E50-4429-B73E-C267894CE53F}" name="Story Name" dataDxfId="44"/>
     <tableColumn id="2" xr3:uid="{92144E97-78C1-4013-A5DC-A103AC987D08}" name="AC  ID" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{D34169B1-9605-4002-A5FC-55DBEC95591D}" name="AC Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{988A7BC5-9B7F-4EF4-9743-8B43044CA88C}" name="Classes" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6962998B-BD75-44D2-8DE4-A3B7232E7D55}" name="Method Name(s) " dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{8D2432C4-71E4-445C-BF93-B65E87280890}" name="Status" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{1E10CD18-6EE0-4C57-A597-745A6F075070}" name="Notes (optional)" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{D34169B1-9605-4002-A5FC-55DBEC95591D}" name="AC Name" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{988A7BC5-9B7F-4EF4-9743-8B43044CA88C}" name="Classes" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{6962998B-BD75-44D2-8DE4-A3B7232E7D55}" name="Method Name(s) " dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{8D2432C4-71E4-445C-BF93-B65E87280890}" name="Status" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{1E10CD18-6EE0-4C57-A597-745A6F075070}" name="Notes (optional)" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}" name="Table6" displayName="Table6" ref="B3:H31" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}" name="Table6" displayName="Table6" ref="B3:H31" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B3:H31" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4D464094-4CAA-4F0A-8155-1005A5221EA7}" name="User Story ID" dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{DFFD886B-21F5-4EE4-B1E5-B9C3CA981393}" name="User Story Name" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{588A5FF9-87E4-4232-A109-F00AE6EAB7C9}" name="AC ID" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{A723F0C9-F396-4182-A5DB-A36687ECC464}" name="AC Name" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{04A7B299-94AB-4FB7-8A08-822F463E676E}" name="Classes " dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{263669AA-535C-4DA8-9C9A-A153A480F553}" name="Methods" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{9CFC3D83-A897-493C-A6B2-E4D0BA51E596}" name="Description" dataDxfId="34"/>
+    <tableColumn id="1" xr3:uid="{4D464094-4CAA-4F0A-8155-1005A5221EA7}" name="User Story ID" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{DFFD886B-21F5-4EE4-B1E5-B9C3CA981393}" name="User Story Name" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{588A5FF9-87E4-4232-A109-F00AE6EAB7C9}" name="AC ID" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{A723F0C9-F396-4182-A5DB-A36687ECC464}" name="AC Name" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{04A7B299-94AB-4FB7-8A08-822F463E676E}" name="Classes " dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{263669AA-535C-4DA8-9C9A-A153A480F553}" name="Methods" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{9CFC3D83-A897-493C-A6B2-E4D0BA51E596}" name="Description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A6E1AD56-1E7E-4845-A6DC-51274101CF0C}" name="Table69" displayName="Table69" ref="B3:G26" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A6E1AD56-1E7E-4845-A6DC-51274101CF0C}" name="Table69" displayName="Table69" ref="B3:G26" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="B3:G26" xr:uid="{AFC835DF-2809-4ADA-8933-35F8B41412B7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{301EF044-7DF2-4C9B-84A0-556EDC81E926}" name="User Story ID" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{C53176BB-A112-4BC9-B43C-A9B819FD40BE}" name="User Story Name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{75701814-A8A2-49F2-9634-F7BCE794B67D}" name="AC ID" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{DB2FE0C2-4D4A-4FA4-AD4F-2F9ACE0E2772}" name="AC Name" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{5FE8A6D0-B4D1-471F-9956-459A848C1C0F}" name="Test Case Input" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{C8A349CF-C07B-44C4-B8D0-DD604B478305}" name="Test Oracle" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{301EF044-7DF2-4C9B-84A0-556EDC81E926}" name="User Story ID" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{C53176BB-A112-4BC9-B43C-A9B819FD40BE}" name="User Story Name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{75701814-A8A2-49F2-9634-F7BCE794B67D}" name="AC ID" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{DB2FE0C2-4D4A-4FA4-AD4F-2F9ACE0E2772}" name="AC Name" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{5FE8A6D0-B4D1-471F-9956-459A848C1C0F}" name="Test Case Input" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{C8A349CF-C07B-44C4-B8D0-DD604B478305}" name="Test Oracle" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}" name="Table9" displayName="Table9" ref="B2:F10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="B2:F10" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}" name="Table9" displayName="Table9" ref="B2:F16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B2:F16" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7EE5C09C-96A5-4FC0-A9B8-78BA2D61269E}" name="Number" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B9AA6030-119E-443A-BB87-750EA97ECF8C}" name="Production Code Class.Method" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{49E194BC-903C-4C2D-AF6F-5DBC479ACEC9}" name="Test Code Class.Method" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9D11DD5C-4AE4-4A5E-8750-0E12B5A106FA}" name="Test Input" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{8C3EBF53-C850-403C-B499-DB556E2F1A8B}" name="Expected Result" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{7EE5C09C-96A5-4FC0-A9B8-78BA2D61269E}" name="Number" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{B9AA6030-119E-443A-BB87-750EA97ECF8C}" name="Production Code Class.Method" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{49E194BC-903C-4C2D-AF6F-5DBC479ACEC9}" name="Test Code Class.Method" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9D11DD5C-4AE4-4A5E-8750-0E12B5A106FA}" name="Test Input" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{8C3EBF53-C850-403C-B499-DB556E2F1A8B}" name="Expected Result" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69FD6488-0717-4BB3-A73F-84BDA7E946E5}" name="Table4" displayName="Table4" ref="A1:L513" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69FD6488-0717-4BB3-A73F-84BDA7E946E5}" name="Table4" displayName="Table4" ref="A1:L513" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L513" xr:uid="{69FD6488-0717-4BB3-A73F-84BDA7E946E5}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{4EEA4C52-25A8-4AC1-AB64-130F1061C5C0}" name="Control Name" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{528C3ED4-7A70-4ADC-A6E5-12A55306EB86}" name="Control A" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5A820990-15C8-451A-AA81-A4FDEEF27F37}" name="Control B" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{90491295-6B5C-44D5-9DBA-7086E88AC0F9}" name="Control C" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1C3B15D1-EB06-4A22-B868-6BE0E2AA4E0D}" name="Control D" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{EB1C9048-B008-4402-8AFC-D23757742E6F}" name="In Replay" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{B62C2260-705C-4FA8-AAD7-D8CDD79F071C}" name="In Game" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{7DBAE433-F5CB-4355-AA42-DF22721518A4}" name="Is Red Turn" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{E7051258-A7C3-4770-BF85-6A7E897040FA}" name="Is Blue Computer" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{672057EC-F845-40E7-A956-72F68FFFCD00}" name="Is Red Computer" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{43FEA681-4DBD-4D98-B67C-A034045E34F1}" name="Is Accessible" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{72EB1685-1373-450C-B014-35BFBA34CCA1}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{4EEA4C52-25A8-4AC1-AB64-130F1061C5C0}" name="Control Name" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{528C3ED4-7A70-4ADC-A6E5-12A55306EB86}" name="Control A" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5A820990-15C8-451A-AA81-A4FDEEF27F37}" name="Control B" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{90491295-6B5C-44D5-9DBA-7086E88AC0F9}" name="Control C" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{1C3B15D1-EB06-4A22-B868-6BE0E2AA4E0D}" name="Control D" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{EB1C9048-B008-4402-8AFC-D23757742E6F}" name="In Replay" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{B62C2260-705C-4FA8-AAD7-D8CDD79F071C}" name="In Game" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{7DBAE433-F5CB-4355-AA42-DF22721518A4}" name="Is Red Turn" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E7051258-A7C3-4770-BF85-6A7E897040FA}" name="Is Blue Computer" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{672057EC-F845-40E7-A956-72F68FFFCD00}" name="Is Red Computer" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{43FEA681-4DBD-4D98-B67C-A034045E34F1}" name="Is Accessible" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{72EB1685-1373-450C-B014-35BFBA34CCA1}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1942,12 +2008,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -2035,36 +2101,36 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>5</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <v>7</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="18">
+      <c r="C10" s="15">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <v>8</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="15">
         <v>2</v>
       </c>
     </row>
@@ -2133,15 +2199,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -2416,122 +2482,122 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>5</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16">
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14">
         <v>5.2</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
         <v>5.3</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>6</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>6.1</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16">
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14">
         <v>6.2</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16">
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14">
         <v>6.3</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16">
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14">
         <v>6.4</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2671,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EAF2C1-6E6A-4763-B1B8-87DF226FCFDA}">
   <dimension ref="B4:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2984,7 +3050,7 @@
   <dimension ref="B4:I30"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E26"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3369,164 +3435,164 @@
       </c>
     </row>
     <row r="20" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="12" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12">
         <v>5.2</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
         <v>5.3</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>6</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>6.1</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="12" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12">
         <v>6.2</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="12" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12">
         <v>6.3</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="12" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12">
         <v>6.4</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="12" t="s">
         <v>350</v>
       </c>
     </row>
@@ -3633,7 +3699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A737DB-AD5B-4BBA-89D3-5F2C1DDAB7EB}">
   <dimension ref="B3:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -3991,143 +4057,143 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="12">
         <v>5</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="12" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
         <v>5.2</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="12" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12">
         <v>5.3</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="12" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>6</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>6.1</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="12" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12">
         <v>6.2</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="12" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12">
         <v>6.3</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="12" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12">
         <v>6.4</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="12" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4188,7 +4254,7 @@
       <c r="G30" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="D31" s="9">
@@ -4203,7 +4269,7 @@
       <c r="G31" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H31" s="14"/>
+      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4217,8 +4283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF00AFE-AD52-4AB4-8B4B-3CE4DDE5BDEE}">
   <dimension ref="B3:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4476,112 +4542,124 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>5</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12">
         <v>5.2</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12">
         <v>5.3</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>6</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>6.1</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12">
         <v>6.2</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14">
+      <c r="F21" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12">
         <v>6.3</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14">
+      <c r="F22" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12">
         <v>6.4</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="F23" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
@@ -4645,10 +4723,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16732A8-5A44-436B-B9F8-A4670902CDC5}">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4656,7 +4734,7 @@
     <col min="1" max="1" width="9.140625" style="9"/>
     <col min="2" max="2" width="10.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="33" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.85546875" style="9" customWidth="1"/>
@@ -4814,6 +4892,106 @@
       </c>
       <c r="F10" s="9" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>11</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B16" s="12">
+        <v>14</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/sprint-3-logs.xlsx
+++ b/artifacts/sprint-3-logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbens\dev\sosgame\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B8397-B7C9-4DAC-99C2-F3CA46883C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2845AF9-125D-46FD-84E2-470DDAB14965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16290" yWindow="-10785" windowWidth="16410" windowHeight="11295" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16290" yWindow="-10785" windowWidth="16410" windowHeight="11295" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="399">
   <si>
     <t>ID</t>
   </si>
@@ -1275,6 +1275,51 @@
   </si>
   <si>
     <t>It is still the red player's turn</t>
+  </si>
+  <si>
+    <t>SOS line (last O) -&gt;vertical line case</t>
+  </si>
+  <si>
+    <t>SOS line (last O) -&gt;horizontal line case</t>
+  </si>
+  <si>
+    <t>SOS line (last O) -&gt; positive diagonal case</t>
+  </si>
+  <si>
+    <t>SOS line (last O) -&gt; negative diagonal case</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; vertical line case (last move on top S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; vertical line case (last move on bottom S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; horizontal line case (last move on right S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; horizontal line case (last move on left S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; positive diagonal case (last move on top-right S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; positive diagonal case (last move on bottom-left S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; negative diagonal case (last move on top-left S)</t>
+  </si>
+  <si>
+    <t>SOS line (last S) -&gt; negative diagonal case (last move on bottom-right S)</t>
+  </si>
+  <si>
+    <t>Game.CheckSOS</t>
+  </si>
+  <si>
+    <t>Game.TestCheckSOS</t>
+  </si>
+  <si>
+    <t>New SOS line appended to Game.sosLines</t>
   </si>
 </sst>
 </file>
@@ -1695,8 +1740,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}" name="Table9" displayName="Table9" ref="B2:F16" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B2:F16" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}" name="Table9" displayName="Table9" ref="B2:F28" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B2:F28" xr:uid="{0F699053-0EA0-422C-84BA-6343D3283560}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7EE5C09C-96A5-4FC0-A9B8-78BA2D61269E}" name="Number" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{B9AA6030-119E-443A-BB87-750EA97ECF8C}" name="Production Code Class.Method" dataDxfId="17"/>
@@ -4723,10 +4768,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16732A8-5A44-436B-B9F8-A4670902CDC5}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,6 +5037,210 @@
       </c>
       <c r="F16" s="12" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="12">
+        <v>15</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="12">
+        <v>16</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>18</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="12">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="12">
+        <v>21</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>22</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="12">
+        <v>23</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B26" s="12">
+        <v>24</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="12">
+        <v>25</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12">
+        <v>26</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
